--- a/web/tmp/Mau_Exel.xlsx
+++ b/web/tmp/Mau_Exel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t xml:space="preserve">    TỔNG CỤC HẢI QUAN</t>
   </si>
@@ -68,10 +68,6 @@
     <t>KV</t>
   </si>
   <si>
-    <t>THÁNG 
-NĂM HƯỞNG</t>
-  </si>
-  <si>
     <t>PC TNVK</t>
   </si>
   <si>
@@ -127,9 +123,6 @@
   <si>
     <t>HSPC
 TNVK</t>
-  </si>
-  <si>
-    <t>THÁNG NĂM HƯỞNG</t>
   </si>
   <si>
     <t>SÔ NĂM</t>
@@ -324,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -344,15 +337,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -363,35 +382,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,20 +679,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP7"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6:AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="18.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:40" ht="18.75">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -740,15 +730,13 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:42" ht="18.75">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:40" ht="18.75">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -786,56 +774,52 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:42" ht="25.5">
-      <c r="A3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
+    <row r="3" spans="1:40" ht="25.5">
+      <c r="A3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
     </row>
-    <row r="4" spans="1:42" ht="18.75">
+    <row r="4" spans="1:40" ht="18.75">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -874,288 +858,273 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
     </row>
-    <row r="5" spans="1:42">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:40">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="15" t="s">
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="14" t="s">
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="14" t="s">
+      <c r="AN5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:40" ht="15" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="16" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="16" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="16" t="s">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="16" t="s">
+      <c r="R6" s="19"/>
+      <c r="S6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="14" t="s">
+      <c r="T6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="12"/>
+      <c r="V6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="18" t="s">
+      <c r="Y6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="18" t="s">
+      <c r="Z6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="18" t="s">
+      <c r="AA6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="23" t="s">
+      <c r="AB6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="18" t="s">
+      <c r="AC6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AD6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AF6" s="20" t="s">
+      <c r="AF6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AG6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI6" s="14" t="s">
+      <c r="AI6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AJ6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN6" s="18" t="s">
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+    </row>
+    <row r="7" spans="1:40" ht="21">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-    </row>
-    <row r="7" spans="1:42" ht="31.5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
       <c r="J7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>37</v>
+      <c r="O7" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="42">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="X5:AL5"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AP5:AP7"/>
+    <mergeCell ref="AM5:AM7"/>
+    <mergeCell ref="AN5:AN7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
     <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:V5"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="Z5:AN5"/>
-    <mergeCell ref="AM6:AM7"/>
     <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AO5:AO7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/tmp/Mau_Exel.xlsx
+++ b/web/tmp/Mau_Exel.xlsx
@@ -343,6 +343,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -352,36 +376,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,18 +681,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6:AI7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" customWidth="1"/>
+    <col min="31" max="40" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="18.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -732,11 +737,11 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" ht="18.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -776,48 +781,48 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="25.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
     </row>
     <row r="4" spans="1:40" ht="18.75">
       <c r="A4" s="5"/>
@@ -858,176 +863,176 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="12" t="s">
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" s="12" t="s">
+      <c r="AN5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="17" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="17" t="s">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="12" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="9" t="s">
+      <c r="U6" s="13"/>
+      <c r="V6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AD6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AE6" s="12" t="s">
+      <c r="AE6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AF6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AG6" s="12" t="s">
+      <c r="AG6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AH6" s="12" t="s">
+      <c r="AH6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AI6" s="12" t="s">
+      <c r="AI6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AJ6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AK6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AL6" s="9" t="s">
+      <c r="AL6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
     </row>
     <row r="7" spans="1:40" ht="21">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1058,31 +1063,57 @@
       <c r="R7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:AN3"/>
@@ -1099,32 +1130,6 @@
     <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="X6:X7"/>
     <mergeCell ref="AM5:AM7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
